--- a/WolfyKnights/Assets/Resources/Datas/Excel/EnemyTable.xlsx
+++ b/WolfyKnights/Assets/Resources/Datas/Excel/EnemyTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\WolfyNights\WolfyNights\Assets\Resources\Datas\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\WolfyNights\WolfyKnights\Assets\Resources\Datas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D04019B-CB02-47E4-BD9D-AD5C817A7165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A03019E-1242-408E-8EB8-78BCDC35CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{902031BC-5275-4E09-82E1-632EA4147DA7}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1.5</v>
